--- a/earlywarning-pom/earlywarning-config/src/baf-instances/29_Inst_BusinessLine_KOPER.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/29_Inst_BusinessLine_KOPER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" tabRatio="854" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="4710" tabRatio="854"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="105">
   <si>
     <t>Business_Line</t>
   </si>
@@ -478,9 +478,6 @@
     <t>EQUALS</t>
   </si>
   <si>
-    <t>(SEGMENT = 'CORPORATE')</t>
-  </si>
-  <si>
     <t>FILTER_BE_VAR_CORPORATE</t>
   </si>
   <si>
@@ -508,27 +505,6 @@
     <t>FV_KOPER_0000002</t>
   </si>
   <si>
-    <t>Small/Micro</t>
-  </si>
-  <si>
-    <t>(SEGMENT='Small/Micro')</t>
-  </si>
-  <si>
-    <t>FILTER_SMALL_MICRO</t>
-  </si>
-  <si>
-    <t>SMALL_MICRO_SEGMENT</t>
-  </si>
-  <si>
-    <t>SAMLL_MICRO_EQUALS</t>
-  </si>
-  <si>
-    <t>FILTER_BE_VAR_SMALL_MICRO</t>
-  </si>
-  <si>
-    <t>SMALL/MICRO</t>
-  </si>
-  <si>
     <t>BRAU_KOPER_0000001</t>
   </si>
   <si>
@@ -545,16 +521,86 @@
   </si>
   <si>
     <t>KOPER_SEGMENT</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>(SEGMENT='Small')</t>
+  </si>
+  <si>
+    <t>BL_KOPER_000003</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>(SEGMENT='Micro')</t>
+  </si>
+  <si>
+    <t>FILTER_SMALL</t>
+  </si>
+  <si>
+    <t>FI_KOPER_000003</t>
+  </si>
+  <si>
+    <t>FILTER_MICRO</t>
+  </si>
+  <si>
+    <t>SMALL_SEGMENT</t>
+  </si>
+  <si>
+    <t>MICRO_SEGMENT</t>
+  </si>
+  <si>
+    <t>R_FILTER_KOPER_VAR_03</t>
+  </si>
+  <si>
+    <t>SAMLL_EQUALS</t>
+  </si>
+  <si>
+    <t>MICRO_EQUALS</t>
+  </si>
+  <si>
+    <t>FV_KOPER_0000003</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>FILTER_BE_VAR_MICRO</t>
+  </si>
+  <si>
+    <t>FILTER_BE_VAR_SMALL</t>
+  </si>
+  <si>
+    <t>BRAU_KOPER_0000003</t>
+  </si>
+  <si>
+    <t>BL_KOPER_000003-COUNTERPARTY_KOPER</t>
+  </si>
+  <si>
+    <t>(SEGMENT = 'Corporate')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,16 +663,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,6 +1122,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10353675" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10353675" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1507,6 +1650,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11372850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11372850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1939,6 +2178,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9848850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9848850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2371,6 +2706,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2803,6 +3234,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10067925" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10325100" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3235,6 +3762,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9372600" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9372600" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3667,6 +4290,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10039350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10039350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4099,6 +4818,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4531,6 +5346,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4931,6 +5842,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5229,10 +6236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,7 +6282,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -5284,7 +6291,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5292,16 +6299,33 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5313,10 +6337,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,19 +6387,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5383,19 +6407,39 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6240,10 +7284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6291,7 +7335,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -6300,7 +7344,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -6311,18 +7355,38 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -6383,16 +7447,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
@@ -6433,7 +7497,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -6442,10 +7506,10 @@
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6453,19 +7517,39 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6477,10 +7561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6526,7 +7610,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -6535,7 +7619,7 @@
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>68</v>
@@ -6546,18 +7630,38 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6570,10 +7674,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6640,16 +7744,16 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -6669,24 +7773,50 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
     </row>
